--- a/MedicalLink/Templates/BC_41_ThongKeSuDungDichVuYeuCau_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_41_ThongKeSuDungDichVuYeuCau_TongHop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
     <t>Thành tiền</t>
   </si>
   <si>
@@ -102,6 +99,27 @@
   </si>
   <si>
     <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>Đơn giá BHYT</t>
+  </si>
+  <si>
+    <t>Đơn giá YC</t>
+  </si>
+  <si>
+    <t>Thành tiền YC</t>
+  </si>
+  <si>
+    <t>Chênh lệch</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SERVICEPRICEMONEY_BHYT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_BHYT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHENHLECH</t>
   </si>
 </sst>
 </file>
@@ -323,7 +341,51 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -617,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,30 +694,35 @@
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="16"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="25" t="s">
@@ -665,30 +732,36 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="17"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -705,40 +778,58 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="J7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
@@ -754,16 +845,25 @@
         <f>SUM(G8:G8)/2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <f>SUM(I8:I8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUM(J8:J8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:F2"/>
@@ -773,14 +873,24 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="A2:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:H8">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$H8=1</formula>
+  <conditionalFormatting sqref="A8:G8 K8">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>$K8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$K8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$K8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
